--- a/biology/Botanique/Calycobolus/Calycobolus.xlsx
+++ b/biology/Botanique/Calycobolus/Calycobolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycobolus est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calycobolus a pour synonymes hétérotypiques[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Calycobolus a pour synonymes hétérotypiques :
 Dufourea Kunth in F.W.H.von Humboldt, A.J.A.Bonpland &amp; C.S.Kunth, Nov. Gen. Sp. 3: 113 (1819), nom. illeg.
 Dethardingia Nees &amp; Mart., Nova Acta Phys.-Med. Acad. Caes. Leop.-Carol. Nat. Cur. 11: 80 (1823), nom. superfl.
 Reinwardtia Spreng., Syst. Veg. 1: 527 (1824), nom. illeg.
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2017) :
 Calycobolus acuminatus (Pilger) Heine
 Calycobolus africanus (G. Don) Heine
 Calycobolus cabrae (De Wild. &amp; Th. Dur.) Heine
@@ -571,10 +587,10 @@
 Calycobolus robynsianus J. Lejoly &amp; S. Lisowski
 Calycobolus sericeus (Kunth) House
 Calycobolus velutinus (Walp.) House
-Selon NCBI  (31 octobre 2017)[4] :
+Selon NCBI  (31 octobre 2017) :
 Calycobolus glaber
 Calycobolus nutans
-Selon The Plant List            (31 octobre 2017)[5] :
+Selon The Plant List            (31 octobre 2017) :
 Calycobolus africanus (G. Don) Heine
 Calycobolus glaber (Kunth) House
 Calycobolus heudelotii (Baker ex Oliv.) Heine
@@ -585,7 +601,7 @@
 Calycobolus nutans (Moc. &amp; Sessé ex Choisy) D.F. Austin
 Calycobolus parviflorus (Mangenot) Heine
 Calycobolus sericeus (Kunth) House
-Selon Tropicos                                           (31 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Calycobolus acuminatus (Pilg.) Heine
 Calycobolus africanus (G. Don) Heine
 Calycobolus bampsianus Lejoly &amp; Lisowski
